--- a/api/template/network_template.xlsx
+++ b/api/template/network_template.xlsx
@@ -50,7 +50,7 @@
     <t>采购合同号</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>设备名称</t>
   </si>
   <si>
     <t>主机名</t>
@@ -738,12 +738,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,10 +1077,10 @@
   <sheetPr/>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1094,86 +1091,86 @@
     <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.625" style="2" customWidth="1"/>
     <col min="14" max="16" width="15.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="30.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="30.625" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:18">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="2"/>
@@ -1192,8 +1189,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="2"/>
@@ -1212,8 +1209,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:18">
       <c r="A5" s="2"/>
@@ -1232,8 +1229,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:18">
       <c r="A6" s="2"/>
@@ -1252,8 +1249,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:18">
       <c r="A7" s="2"/>
@@ -1272,8 +1269,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:18">
       <c r="A8" s="2"/>
@@ -1292,8 +1289,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="2"/>
@@ -1312,8 +1309,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="2"/>
@@ -1332,8 +1329,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="2"/>
@@ -1352,8 +1349,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:18">
       <c r="A12" s="2"/>
@@ -1372,8 +1369,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="2"/>
@@ -1392,8 +1389,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:18">
       <c r="A14" s="2"/>
@@ -1412,8 +1409,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:18">
       <c r="A15" s="2"/>
@@ -1432,8 +1429,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:18">
       <c r="A16" s="2"/>
@@ -1452,8 +1449,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:18">
       <c r="A17" s="2"/>
@@ -1472,8 +1469,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:18">
       <c r="A18" s="2"/>
@@ -1492,8 +1489,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:18">
       <c r="A19" s="2"/>
@@ -1512,8 +1509,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:18">
       <c r="A20" s="2"/>
@@ -1532,8 +1529,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:18">
       <c r="A21" s="2"/>
@@ -1552,8 +1549,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:18">
       <c r="A22" s="2"/>
@@ -1572,8 +1569,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:18">
       <c r="A23" s="2"/>
@@ -1592,8 +1589,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:18">
       <c r="A24" s="2"/>
@@ -1612,8 +1609,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:18">
       <c r="A25" s="2"/>
@@ -1632,8 +1629,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:18">
       <c r="A26" s="2"/>
@@ -1652,8 +1649,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:18">
       <c r="A27" s="2"/>
@@ -1672,8 +1669,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:18">
       <c r="A28" s="2"/>
@@ -1692,8 +1689,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:18">
       <c r="A29" s="2"/>
@@ -1712,8 +1709,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:18">
       <c r="A30" s="2"/>
@@ -1732,8 +1729,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:18">
       <c r="A31" s="2"/>
@@ -1752,8 +1749,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:18">
       <c r="A32" s="2"/>
@@ -1772,8 +1769,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:18">
       <c r="A33" s="2"/>
@@ -1792,8 +1789,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:18">
       <c r="A34" s="2"/>
@@ -1812,8 +1809,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:18">
       <c r="A35" s="2"/>
@@ -1832,8 +1829,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:18">
       <c r="A36" s="2"/>
@@ -1852,8 +1849,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:18">
       <c r="A37" s="2"/>
@@ -1872,8 +1869,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:18">
       <c r="A38" s="2"/>
@@ -1892,8 +1889,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:18">
       <c r="A39" s="2"/>
@@ -1912,8 +1909,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:18">
       <c r="A40" s="2"/>
@@ -1932,8 +1929,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:18">
       <c r="A41" s="2"/>
@@ -1952,8 +1949,8 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:18">
       <c r="A42" s="2"/>
@@ -1972,8 +1969,8 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:18">
       <c r="A43" s="2"/>
@@ -1992,8 +1989,8 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:18">
       <c r="A44" s="2"/>
@@ -2012,8 +2009,8 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:18">
       <c r="A45" s="2"/>
@@ -2032,8 +2029,8 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:18">
       <c r="A46" s="2"/>
@@ -2052,8 +2049,8 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:18">
       <c r="A47" s="2"/>
@@ -2072,8 +2069,8 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:18">
       <c r="A48" s="2"/>
@@ -2092,8 +2089,8 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:18">
       <c r="A49" s="2"/>
@@ -2112,8 +2109,8 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:18">
       <c r="A50" s="2"/>
@@ -2132,8 +2129,8 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:18">
       <c r="A51" s="2"/>
@@ -2152,8 +2149,8 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:18">
       <c r="A58" s="2"/>
@@ -2172,8 +2169,8 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:18">
       <c r="A59" s="2"/>
@@ -2192,8 +2189,8 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:18">
       <c r="A60" s="2"/>
@@ -2212,8 +2209,8 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:18">
       <c r="A61" s="2"/>
@@ -2232,8 +2229,8 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:18">
       <c r="A62" s="2"/>
@@ -2252,8 +2249,8 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:18">
       <c r="A63" s="2"/>
@@ -2272,8 +2269,8 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:18">
       <c r="A64" s="2"/>
@@ -2292,8 +2289,8 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:18">
       <c r="A65" s="2"/>
@@ -2312,8 +2309,8 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:18">
       <c r="A66" s="2"/>
@@ -2332,8 +2329,8 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:18">
       <c r="A67" s="2"/>
@@ -2352,8 +2349,8 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:18">
       <c r="A68" s="2"/>
@@ -2372,8 +2369,8 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:AA66">
